--- a/medicine/Psychotrope/Cuvée/Cuvée.xlsx
+++ b/medicine/Psychotrope/Cuvée/Cuvée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cuv%C3%A9e</t>
+          <t>Cuvée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cuvée est la quantité de vin qui se fait à la fois dans une cuve. Dans ce sens, on peut dire d'un vigneron qu'il a fait un certain nombre de cuvées de vin et que des tonneaux sont ou non de la même cuvée.
 On appelle tête de cuvée (ou tête de vin) le vin tiré des premières cuvées d'une vendange de qualité (surtout dans les crus de Bourgogne et de Champagne).
